--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rammy\Desktop\marsframework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelam\Desktop\Mars project\MarsFramework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A284790-B9D2-4743-98D4-AD4AC2717BDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B07BBE-F529-4C72-A931-F69ED8F073F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="510" windowWidth="20730" windowHeight="10530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -87,18 +87,6 @@
     <t>Hidden</t>
   </si>
   <si>
-    <t>Rameez</t>
-  </si>
-  <si>
-    <t>Ismail</t>
-  </si>
-  <si>
-    <t>ramm@hotmail.co.nz</t>
-  </si>
-  <si>
-    <t>Rammy1234</t>
-  </si>
-  <si>
     <t>http://www.skillswap.pro/</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>WorkSample</t>
   </si>
   <si>
-    <t>C:\Rammy\Desktop\marsframework\MarsFramework\WorkSampleUpload\ram dragon.jpg</t>
-  </si>
-  <si>
     <t>Promotion Videos</t>
   </si>
   <si>
@@ -162,10 +147,25 @@
     <t>I like to create an animation for all the anime fans out in the world</t>
   </si>
   <si>
-    <t>C:\Rammy\Desktop\marsframework\MarsFramework\WorkSampleUpload\Test.txt</t>
-  </si>
-  <si>
     <t>Anime</t>
+  </si>
+  <si>
+    <t>neelam.panda@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Hello@123</t>
+  </si>
+  <si>
+    <t>Neelam</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>C:\Users\Neelam\Desktop\Mars project\MarsFramework-master\MarsFramework\WorkSampleUpload\ram dragon.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Neelam\Desktop\Mars project\MarsFramework-master\MarsFramework\WorkSampleUpload\Test.txt</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,24 +603,26 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{53ACCEE9-9DA9-4DAF-A927-537C2732DA35}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{92EAF15C-4054-4FBC-AE8E-458B94979397}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -631,7 +633,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,19 +656,19 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId2" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -678,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,10 +718,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -743,36 +745,36 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5">
         <v>43809</v>
@@ -787,16 +789,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N2">
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
         <v>12</v>
@@ -804,25 +806,25 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
       </c>
       <c r="H3" s="3">
         <v>43747</v>
@@ -840,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
         <v>20</v>
